--- a/UiPath Code Review Checklist.xlsx
+++ b/UiPath Code Review Checklist.xlsx
@@ -243,12 +243,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -378,13 +378,13 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -410,13 +410,13 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -702,21 +702,19 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="b">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
@@ -726,48 +724,48 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="9">
         <f>COUNTIF(B2:B58, FALSE())</f>
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="7">
         <f>SUM(G3:G4)</f>
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
@@ -777,14 +775,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
@@ -795,514 +793,506 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="b">
+      <c r="B9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="b">
+      <c r="B10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="b">
+      <c r="B11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="b">
+      <c r="B12" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="b">
+      <c r="B13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="b">
+      <c r="B14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="b">
+      <c r="B15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="b">
+      <c r="B16" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="b">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3" t="b">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="b">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3" t="b">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="3" t="b">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3" t="b">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="3" t="b">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3" t="b">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="3" t="b">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3" t="b">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3" t="b">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="3" t="b">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3" t="b">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="3" t="b">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3" t="b">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3" t="b">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="3" t="b">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="3" t="b">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="3" t="b">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="3" t="b">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3" t="b">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="3" t="b">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3" t="b">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="3" t="b">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="3" t="b">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="b">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="3" t="b">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="3" t="b">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="3" t="b">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="3" t="b">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="3" t="b">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="3" t="b">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="3" t="b">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="3" t="b">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="3" t="b">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="3" t="b">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="3" t="b">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="3" t="b">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="15"/>
@@ -6075,11 +6065,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -6129,7 +6117,7 @@
       </c>
       <c r="G4" s="9">
         <f>COUNTIF(B2:B58, FALSE())</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -6153,7 +6141,7 @@
       </c>
       <c r="G5" s="7">
         <f>SUM(G3:G4)</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -6385,11 +6373,9 @@
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -6898,11 +6884,9 @@
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -7012,11 +6996,9 @@
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -7126,11 +7108,9 @@
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>

--- a/UiPath Code Review Checklist.xlsx
+++ b/UiPath Code Review Checklist.xlsx
@@ -737,7 +737,7 @@
       </c>
       <c r="G4" s="9">
         <f>COUNTIF(B2:B58, FALSE())</f>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -754,7 +754,7 @@
       </c>
       <c r="G5" s="7">
         <f>SUM(G3:G4)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1061,14 +1061,12 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
@@ -6083,7 +6081,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -6093,7 +6091,7 @@
       </c>
       <c r="G3" s="7">
         <f>COUNTIF(B2:B58, TRUE())</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -6107,7 +6105,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -6117,7 +6115,7 @@
       </c>
       <c r="G4" s="9">
         <f>COUNTIF(B2:B58, FALSE())</f>
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -6131,7 +6129,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -6141,7 +6139,7 @@
       </c>
       <c r="G5" s="7">
         <f>SUM(G3:G4)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -6155,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -6165,7 +6163,7 @@
       </c>
       <c r="G6" s="12">
         <f>(G3/G5)</f>
-        <v>0</v>
+        <v>0.3137254902</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -6279,7 +6277,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -6391,7 +6389,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -6410,7 +6408,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -6429,7 +6427,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -6467,7 +6465,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -6486,7 +6484,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -6505,7 +6503,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -6562,7 +6560,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -6638,7 +6636,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -6710,14 +6708,12 @@
       <c r="M34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -6733,7 +6729,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -6771,7 +6767,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -6847,7 +6843,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
